--- a/docs/zxspectrum-bom.xlsx
+++ b/docs/zxspectrum-bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="225">
   <si>
     <t>Qty</t>
   </si>
@@ -49,7 +49,7 @@
     <t>ULA 6C001E-6/6C001E-7</t>
   </si>
   <si>
-    <t>Replacements: NebULA, vLA82</t>
+    <t>Replacements: Retroleum Nebula, vRetro vLA82</t>
   </si>
   <si>
     <t>DIP40</t>
@@ -61,6 +61,12 @@
     <t>Zilog Z80A</t>
   </si>
   <si>
+    <t>4MHz or higher. Replacement: Z84C00</t>
+  </si>
+  <si>
+    <t>692-Z84C0006PEG</t>
+  </si>
+  <si>
     <t>IC2</t>
   </si>
   <si>
@@ -70,13 +76,16 @@
     <t>DIP16</t>
   </si>
   <si>
+    <t>595-SN74LS157N</t>
+  </si>
+  <si>
     <t>IC3 IC4 IC25 IC26</t>
   </si>
   <si>
     <t>ROM</t>
   </si>
   <si>
-    <t>Replacement: 27C128, requires hardware modification</t>
+    <t>Replacement: 27C128 or 27C256, requires hardware modification</t>
   </si>
   <si>
     <t>DIP28</t>
@@ -100,10 +109,10 @@
     <t>IC14</t>
   </si>
   <si>
-    <t>4432/4464</t>
-  </si>
-  <si>
-    <t>4432 must be of same type</t>
+    <t>4132</t>
+  </si>
+  <si>
+    <t>Replacement: 4164. All 4132 must be of same brand and type.</t>
   </si>
   <si>
     <t>IC15 IC16 IC17 IC18 IC19 IC20 IC21 IC22</t>
@@ -115,12 +124,18 @@
     <t>DIP14</t>
   </si>
   <si>
+    <t>595-SN74LS32N</t>
+  </si>
+  <si>
     <t>IC23</t>
   </si>
   <si>
     <t>74LS00</t>
   </si>
   <si>
+    <t>595-SN74LS00N</t>
+  </si>
+  <si>
     <t>IC24</t>
   </si>
   <si>
@@ -133,7 +148,10 @@
     <t>Replacement: BC548C</t>
   </si>
   <si>
-    <t>???</t>
+    <t>TO92</t>
+  </si>
+  <si>
+    <t>637-BC548C</t>
   </si>
   <si>
     <t>TR1 TR2 TR3 TR6</t>
@@ -145,13 +163,19 @@
     <t>Replacement: ZTX651</t>
   </si>
   <si>
+    <t>522-ZTX651</t>
+  </si>
+  <si>
     <t>TR4</t>
   </si>
   <si>
     <t>ZTX213</t>
   </si>
   <si>
-    <t>Replacement: BC557, reverse mounted</t>
+    <t>Replacement: BC557 (flat side in other direction)</t>
+  </si>
+  <si>
+    <t>637-BC557C</t>
   </si>
   <si>
     <t>TR5</t>
@@ -169,6 +193,9 @@
     <t>Replacement: BC549B</t>
   </si>
   <si>
+    <t>637-BC549B</t>
+  </si>
+  <si>
     <t>TR8 TR9</t>
   </si>
   <si>
@@ -178,73 +205,115 @@
     <t>1N4148</t>
   </si>
   <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>512-1N4148</t>
+  </si>
+  <si>
     <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D11 D12 D13</t>
   </si>
   <si>
     <t>BA157</t>
   </si>
   <si>
+    <t>637-BA157</t>
+  </si>
+  <si>
     <t>D15</t>
   </si>
   <si>
     <t>5V1 Zener</t>
   </si>
   <si>
+    <t>78-BZX55C5V1</t>
+  </si>
+  <si>
     <t>D16</t>
   </si>
   <si>
     <t>Capacitors</t>
   </si>
   <si>
-    <t>16pF 5%</t>
+    <t>16pF 5% MLCC</t>
+  </si>
+  <si>
+    <t>TH Axial</t>
+  </si>
+  <si>
+    <t>581-SR151A160JAR</t>
   </si>
   <si>
     <t>C72 C73</t>
   </si>
   <si>
-    <t>33pF 10%</t>
+    <t>33pF 10% MLCC</t>
+  </si>
+  <si>
+    <t>594-A330J15C0GH5TAA</t>
   </si>
   <si>
     <t>C37 C38</t>
   </si>
   <si>
-    <t>47pF 10%</t>
+    <t>47pF 10% MLCC</t>
+  </si>
+  <si>
+    <t>594-A470J15C0GH5TAA</t>
   </si>
   <si>
     <t>C63</t>
   </si>
   <si>
-    <t>100pF 10%</t>
+    <t>100pF 10% MLCC</t>
+  </si>
+  <si>
+    <t>594-A101K15C0GH5TAA</t>
   </si>
   <si>
     <t>C64 C67</t>
   </si>
   <si>
-    <t>150pF 10%</t>
+    <t>150pF 10% MLCC</t>
+  </si>
+  <si>
+    <t>80-C410C151K3G5TA</t>
   </si>
   <si>
     <t>C52 C53</t>
   </si>
   <si>
-    <t>560pF 10%</t>
+    <t>560pF 10% MLCC</t>
+  </si>
+  <si>
+    <t>581-SA101A561JARC</t>
   </si>
   <si>
     <t>C49</t>
   </si>
   <si>
-    <t>10nF 10%</t>
+    <t>10nF 10% MLCC</t>
+  </si>
+  <si>
+    <t>581-SA105C103K</t>
   </si>
   <si>
     <t>C35 C39</t>
   </si>
   <si>
-    <t>47nF 10%</t>
+    <t>47nF 10% MLCC</t>
+  </si>
+  <si>
+    <t>594-A473K15X7RF5TAA</t>
   </si>
   <si>
     <t>C1 C2 C3 C4 C5 C6 C7 C8 C26 C29 C30 C33 C40 C41 C42 C48 C55 C56 C57 C58 C59 C60 C61 C62 C66 C76</t>
   </si>
   <si>
-    <t>100nF 10%</t>
+    <t>100nF 10% MLCC</t>
+  </si>
+  <si>
+    <t>594-A104K15X7RF5TAA</t>
   </si>
   <si>
     <t>C31 C32 C43 C68 C69 C70 C71 C75 C77</t>
@@ -253,7 +322,7 @@
     <t>1µF 50V Electrolytic</t>
   </si>
   <si>
-    <t>Axial</t>
+    <t>594-MAL203038108E3</t>
   </si>
   <si>
     <t>C27 C46</t>
@@ -262,18 +331,27 @@
     <t>4.7µF 5V Electrolytic</t>
   </si>
   <si>
+    <t>594-MAL203038478E3</t>
+  </si>
+  <si>
     <t>C74</t>
   </si>
   <si>
     <t>22µF 10V Electrolytic</t>
   </si>
   <si>
+    <t>594-MAL203036229E3</t>
+  </si>
+  <si>
     <t>C25 C28 C34 C47 C50 C65</t>
   </si>
   <si>
     <t>100µF 16V Electrolytic</t>
   </si>
   <si>
+    <t>594-MAL203136101E3</t>
+  </si>
+  <si>
     <t>C44 C45</t>
   </si>
   <si>
@@ -283,7 +361,7 @@
     <t>15Ω - 1W, 5%</t>
   </si>
   <si>
-    <t>TH</t>
+    <t>71-CPF1-15R0FT1</t>
   </si>
   <si>
     <t>R34</t>
@@ -292,66 +370,99 @@
     <t>15Ω - 1/4W, 5%</t>
   </si>
   <si>
+    <t>603-MF0207FTE52-15R</t>
+  </si>
+  <si>
     <t>R61 R62 R64</t>
   </si>
   <si>
     <t>56Ω - 1/4W, 5%</t>
   </si>
   <si>
+    <t>603-MF0207FTE52-56R</t>
+  </si>
+  <si>
     <t>R55</t>
   </si>
   <si>
     <t>68Ω - 1/4W, 5%</t>
   </si>
   <si>
+    <t>603-MF0207FTE52-68R</t>
+  </si>
+  <si>
     <t>R60</t>
   </si>
   <si>
     <t>100Ω - 1/4W, 5%</t>
   </si>
   <si>
+    <t>603-MF0207FTE52-100R</t>
+  </si>
+  <si>
     <t>R32</t>
   </si>
   <si>
     <t>180Ω - 1/4W, 5%</t>
   </si>
   <si>
+    <t>603-MF0207FTE52-180R</t>
+  </si>
+  <si>
     <t>R25</t>
   </si>
   <si>
     <t>220Ω - 1/4W, 5%</t>
   </si>
   <si>
+    <t>603-MF0207FTE52-220R</t>
+  </si>
+  <si>
     <t>R70 R71</t>
   </si>
   <si>
     <t>330Ω - 1/4W, 5%</t>
   </si>
   <si>
+    <t>603-MF0207FTE52-330R</t>
+  </si>
+  <si>
     <t>R17 R18 R19 R20 R21 R22 R23</t>
   </si>
   <si>
     <t>390Ω - 1/4W, 5%</t>
   </si>
   <si>
+    <t>603-MF0207FTE52-390R</t>
+  </si>
+  <si>
     <t>R53</t>
   </si>
   <si>
     <t>470Ω - 1/4W, 5%</t>
   </si>
   <si>
+    <t>603-MF0207FTE52-470R</t>
+  </si>
+  <si>
     <t>R1 R2 R3 R4 R5 R6 R7 R8 R26 R27 R28</t>
   </si>
   <si>
     <t>680Ω - 1/4W, 5%</t>
   </si>
   <si>
+    <t>603-MF0207FTE52-680R</t>
+  </si>
+  <si>
     <t>R33 R36</t>
   </si>
   <si>
     <t>1kΩ - 1/4W, 2%</t>
   </si>
   <si>
+    <t>603-MF0207FTE52-1K</t>
+  </si>
+  <si>
     <t>R58</t>
   </si>
   <si>
@@ -364,48 +475,81 @@
     <t>1.8kΩ - 1/4W, 2%</t>
   </si>
   <si>
+    <t>603-MF0207FTE52-1K8</t>
+  </si>
+  <si>
     <t>R59</t>
   </si>
   <si>
     <t>2.2kΩ - 1/4W, 5%</t>
   </si>
   <si>
+    <t>603-MF0207FTE52-2K2</t>
+  </si>
+  <si>
     <t>R48 R51 R52</t>
   </si>
   <si>
     <t>3kΩ - 1/4W, 2%</t>
   </si>
   <si>
+    <t>603-MF0207FTE52-3K</t>
+  </si>
+  <si>
     <t>R43</t>
   </si>
   <si>
     <t>4.7kΩ - 1/4W, 5%</t>
   </si>
   <si>
+    <t>603-MF0207FTE52-4K7</t>
+  </si>
+  <si>
     <t>R50</t>
   </si>
   <si>
     <t>5.1kΩ - 1/4W, 2%</t>
   </si>
   <si>
+    <t>603-MF0207FTE52-5K1</t>
+  </si>
+  <si>
     <t>R44</t>
   </si>
   <si>
     <t>8.2kΩ - 1/4W, 5%</t>
   </si>
   <si>
+    <t>603-MF0207FTE52-8K2</t>
+  </si>
+  <si>
     <t>R9 R10 R11 R12 R13 R14 R15 R16</t>
   </si>
   <si>
     <t>10kΩ - 1/4W, 5%</t>
   </si>
   <si>
+    <t>603-MF0207FTE52-10K</t>
+  </si>
+  <si>
     <t>R28 R29 R30 R35 R49 R65 R66 R67 R68 R69 R72 R74 R75</t>
   </si>
   <si>
+    <t>100kΩ - 1/4W, 5%</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-100K</t>
+  </si>
+  <si>
     <t>R54</t>
   </si>
   <si>
+    <t>220kΩ - 1/4W, 5%</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-220K</t>
+  </si>
+  <si>
     <t>R31</t>
   </si>
   <si>
@@ -415,7 +559,7 @@
     <t>14 MHz Crystal</t>
   </si>
   <si>
-    <t>??</t>
+    <t>HC49</t>
   </si>
   <si>
     <t>X1</t>
@@ -424,45 +568,72 @@
     <t>4.433619 MHz Crystal</t>
   </si>
   <si>
+    <t>710-830003099B</t>
+  </si>
+  <si>
     <t>X2</t>
   </si>
   <si>
     <t>Other</t>
   </si>
   <si>
-    <t>Beeper</t>
+    <t>Beeper, 20mW, 40Ω</t>
+  </si>
+  <si>
+    <t>497-SM230332-2</t>
   </si>
   <si>
     <t>7805</t>
   </si>
   <si>
-    <t>Replacement: Traco Power TSR1-2450</t>
+    <t>Not recommended. Replacement: Traco Power TSR1-2450</t>
+  </si>
+  <si>
+    <t>TO220</t>
+  </si>
+  <si>
+    <t>495-TSR-1-2450</t>
   </si>
   <si>
     <t>Heatsink</t>
   </si>
   <si>
-    <t>Only needed if 7805 is used</t>
+    <t>Only if 7805 is used.</t>
   </si>
   <si>
     <t>Coil</t>
   </si>
   <si>
-    <t>3.5mm Mono Audio Jack</t>
+    <t>3.5mm Mono Audio Jack Socket</t>
+  </si>
+  <si>
+    <t>e.g. Cliff FCR1281</t>
   </si>
   <si>
     <t>DC Power Socket 5.5mm/2.1mm</t>
   </si>
   <si>
+    <t>e.g. Cliff FCR681465P</t>
+  </si>
+  <si>
     <t>Keyboard Connector 5-pin</t>
   </si>
   <si>
+    <t>571-5-520315-5</t>
+  </si>
+  <si>
     <t>Keyboard Connector 8-pin</t>
   </si>
   <si>
+    <t>571-5-520315-8</t>
+  </si>
+  <si>
     <t>TV Modulator</t>
   </si>
   <si>
+    <t>Alternatives: Composite Mod, S-Video Mod</t>
+  </si>
+  <si>
     <t>Wire Jumper</t>
   </si>
   <si>
@@ -472,12 +643,24 @@
     <t>Socket, DIP14</t>
   </si>
   <si>
+    <t>74LS00, 74LS32</t>
+  </si>
+  <si>
+    <t>575-11044314</t>
+  </si>
+  <si>
     <t>IC23 IC24</t>
   </si>
   <si>
     <t>Socket, DIP16</t>
   </si>
   <si>
+    <t>DRAMs, 74LS157</t>
+  </si>
+  <si>
+    <t>575-11044316</t>
+  </si>
+  <si>
     <t>IC3 IC4 IC6 IC7 IC8 IC9 IC10 IC11 IC12 IC13 IC15 IC16 IC17 IC18 IC19 IC20 IC21 IC22 IC25 IC26</t>
   </si>
   <si>
@@ -490,7 +673,13 @@
     <t>Socket, DIP28</t>
   </si>
   <si>
+    <t>575-11044628</t>
+  </si>
+  <si>
     <t>Socket, DIP40</t>
+  </si>
+  <si>
+    <t>CPU, ULA</t>
   </si>
   <si>
     <t>575-11044640</t>
@@ -1046,11 +1235,17 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1058,13 +1253,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1072,16 +1270,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1089,13 +1287,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1103,13 +1301,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1117,16 +1315,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1134,13 +1332,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1148,18 +1349,21 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1173,16 +1377,19 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1190,16 +1397,19 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1207,16 +1417,19 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
+      <c r="E17" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1224,16 +1437,19 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1241,21 +1457,24 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1269,13 +1488,16 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>63</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1283,13 +1505,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>63</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1297,18 +1522,21 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>63</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1322,13 +1550,16 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>74</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1336,13 +1567,16 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>74</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1350,13 +1584,16 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>74</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1364,13 +1601,16 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>74</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1378,13 +1618,16 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>74</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1392,13 +1635,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>74</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1406,13 +1652,16 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>74</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1420,13 +1669,16 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" t="s">
         <v>74</v>
       </c>
-      <c r="D32" t="s">
-        <v>39</v>
+      <c r="E32" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1434,13 +1686,16 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>74</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1448,13 +1703,16 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1462,13 +1720,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1476,13 +1737,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1490,18 +1754,21 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1515,13 +1782,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1529,13 +1799,16 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1543,13 +1816,16 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1557,13 +1833,16 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1571,13 +1850,16 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1585,13 +1867,16 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1599,13 +1884,16 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1613,13 +1901,16 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1627,13 +1918,16 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1641,13 +1935,16 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="D48" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1655,13 +1952,16 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1669,13 +1969,16 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1683,13 +1986,16 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1697,13 +2003,16 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1711,13 +2020,16 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="D53" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1725,13 +2037,16 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="D54" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1739,13 +2054,16 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1753,13 +2071,16 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1767,13 +2088,16 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="D57" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1781,13 +2105,16 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="D58" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1795,13 +2122,16 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="D59" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1809,18 +2139,21 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="D60" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1834,13 +2167,13 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="D62" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1848,18 +2181,21 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="D63" t="s">
-        <v>133</v>
+        <v>181</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1873,7 +2209,10 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>187</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1881,10 +2220,16 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="C66" t="s">
-        <v>140</v>
+        <v>190</v>
+      </c>
+      <c r="D66" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1892,10 +2237,10 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1903,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1911,7 +2256,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>196</v>
+      </c>
+      <c r="C69" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1919,7 +2267,10 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>198</v>
+      </c>
+      <c r="C70" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -1927,7 +2278,10 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>200</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -1935,7 +2289,10 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>202</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -1943,7 +2300,10 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>204</v>
+      </c>
+      <c r="C73" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -1951,12 +2311,12 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1970,13 +2330,19 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>208</v>
+      </c>
+      <c r="C76" t="s">
+        <v>209</v>
       </c>
       <c r="D76" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -1984,13 +2350,19 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>212</v>
+      </c>
+      <c r="C77" t="s">
+        <v>213</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>154</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -1998,16 +2370,19 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>216</v>
+      </c>
+      <c r="C78" t="s">
+        <v>28</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2015,16 +2390,19 @@
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D79" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2032,21 +2410,24 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>220</v>
+      </c>
+      <c r="C80" t="s">
+        <v>221</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="60" customHeight="1">
       <c r="A82" s="5" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2063,8 +2444,63 @@
     <mergeCell ref="A82:G82"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E78" r:id="rId1"/>
-    <hyperlink ref="E80" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E12" r:id="rId3"/>
+    <hyperlink ref="E13" r:id="rId4"/>
+    <hyperlink ref="E15" r:id="rId5"/>
+    <hyperlink ref="E16" r:id="rId6"/>
+    <hyperlink ref="E17" r:id="rId7"/>
+    <hyperlink ref="E18" r:id="rId8"/>
+    <hyperlink ref="E19" r:id="rId9"/>
+    <hyperlink ref="E21" r:id="rId10"/>
+    <hyperlink ref="E22" r:id="rId11"/>
+    <hyperlink ref="E23" r:id="rId12"/>
+    <hyperlink ref="E25" r:id="rId13"/>
+    <hyperlink ref="E26" r:id="rId14"/>
+    <hyperlink ref="E27" r:id="rId15"/>
+    <hyperlink ref="E28" r:id="rId16"/>
+    <hyperlink ref="E29" r:id="rId17"/>
+    <hyperlink ref="E30" r:id="rId18"/>
+    <hyperlink ref="E31" r:id="rId19"/>
+    <hyperlink ref="E32" r:id="rId20"/>
+    <hyperlink ref="E33" r:id="rId21"/>
+    <hyperlink ref="E34" r:id="rId22"/>
+    <hyperlink ref="E35" r:id="rId23"/>
+    <hyperlink ref="E36" r:id="rId24"/>
+    <hyperlink ref="E37" r:id="rId25"/>
+    <hyperlink ref="E39" r:id="rId26"/>
+    <hyperlink ref="E40" r:id="rId27"/>
+    <hyperlink ref="E41" r:id="rId28"/>
+    <hyperlink ref="E42" r:id="rId29"/>
+    <hyperlink ref="E43" r:id="rId30"/>
+    <hyperlink ref="E44" r:id="rId31"/>
+    <hyperlink ref="E45" r:id="rId32"/>
+    <hyperlink ref="E46" r:id="rId33"/>
+    <hyperlink ref="E47" r:id="rId34"/>
+    <hyperlink ref="E48" r:id="rId35"/>
+    <hyperlink ref="E49" r:id="rId36"/>
+    <hyperlink ref="E50" r:id="rId37"/>
+    <hyperlink ref="E51" r:id="rId38"/>
+    <hyperlink ref="E52" r:id="rId39"/>
+    <hyperlink ref="E53" r:id="rId40"/>
+    <hyperlink ref="E54" r:id="rId41"/>
+    <hyperlink ref="E55" r:id="rId42"/>
+    <hyperlink ref="E56" r:id="rId43"/>
+    <hyperlink ref="E57" r:id="rId44"/>
+    <hyperlink ref="E58" r:id="rId45"/>
+    <hyperlink ref="E59" r:id="rId46"/>
+    <hyperlink ref="E60" r:id="rId47"/>
+    <hyperlink ref="E63" r:id="rId48"/>
+    <hyperlink ref="E65" r:id="rId49"/>
+    <hyperlink ref="E66" r:id="rId50"/>
+    <hyperlink ref="E71" r:id="rId51"/>
+    <hyperlink ref="E72" r:id="rId52"/>
+    <hyperlink ref="E76" r:id="rId53"/>
+    <hyperlink ref="E77" r:id="rId54"/>
+    <hyperlink ref="E78" r:id="rId55"/>
+    <hyperlink ref="E79" r:id="rId56"/>
+    <hyperlink ref="E80" r:id="rId57"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/zxspectrum-bom.xlsx
+++ b/docs/zxspectrum-bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="228">
   <si>
     <t>Qty</t>
   </si>
@@ -94,7 +94,10 @@
     <t>IC5</t>
   </si>
   <si>
-    <t>4116</t>
+    <t>4116 - 150ns or less</t>
+  </si>
+  <si>
+    <t>Replacement: 4164, requires hardware modification</t>
   </si>
   <si>
     <t>IC6 IC7 IC8 IC9 IC10 IC11 IC12 IC13</t>
@@ -109,10 +112,10 @@
     <t>IC14</t>
   </si>
   <si>
-    <t>4132</t>
-  </si>
-  <si>
-    <t>Replacement: 4164. All 4132 must be of same brand and type.</t>
+    <t>4532 - 200ns or less</t>
+  </si>
+  <si>
+    <t>Replacement: 4164. All 4532 must be of same brand and type.</t>
   </si>
   <si>
     <t>IC15 IC16 IC17 IC18 IC19 IC20 IC21 IC22</t>
@@ -235,7 +238,7 @@
     <t>Capacitors</t>
   </si>
   <si>
-    <t>16pF 5% MLCC</t>
+    <t>16pF - 5% MLCC</t>
   </si>
   <si>
     <t>TH Axial</t>
@@ -247,7 +250,7 @@
     <t>C72 C73</t>
   </si>
   <si>
-    <t>33pF 10% MLCC</t>
+    <t>33pF - 10% MLCC</t>
   </si>
   <si>
     <t>594-A330J15C0GH5TAA</t>
@@ -256,7 +259,7 @@
     <t>C37 C38</t>
   </si>
   <si>
-    <t>47pF 10% MLCC</t>
+    <t>47pF - 10% MLCC</t>
   </si>
   <si>
     <t>594-A470J15C0GH5TAA</t>
@@ -265,7 +268,7 @@
     <t>C63</t>
   </si>
   <si>
-    <t>100pF 10% MLCC</t>
+    <t>100pF - 10% MLCC</t>
   </si>
   <si>
     <t>594-A101K15C0GH5TAA</t>
@@ -274,7 +277,7 @@
     <t>C64 C67</t>
   </si>
   <si>
-    <t>150pF 10% MLCC</t>
+    <t>150pF - 10% MLCC</t>
   </si>
   <si>
     <t>80-C410C151K3G5TA</t>
@@ -283,7 +286,7 @@
     <t>C52 C53</t>
   </si>
   <si>
-    <t>560pF 10% MLCC</t>
+    <t>560pF - 10% MLCC</t>
   </si>
   <si>
     <t>581-SA101A561JARC</t>
@@ -292,7 +295,7 @@
     <t>C49</t>
   </si>
   <si>
-    <t>10nF 10% MLCC</t>
+    <t>10nF - 10% MLCC</t>
   </si>
   <si>
     <t>581-SA105C103K</t>
@@ -301,7 +304,7 @@
     <t>C35 C39</t>
   </si>
   <si>
-    <t>47nF 10% MLCC</t>
+    <t>47nF - 10% MLCC</t>
   </si>
   <si>
     <t>594-A473K15X7RF5TAA</t>
@@ -310,7 +313,7 @@
     <t>C1 C2 C3 C4 C5 C6 C7 C8 C26 C29 C30 C33 C40 C41 C42 C48 C55 C56 C57 C58 C59 C60 C61 C62 C66 C76</t>
   </si>
   <si>
-    <t>100nF 10% MLCC</t>
+    <t>100nF - 10% MLCC</t>
   </si>
   <si>
     <t>594-A104K15X7RF5TAA</t>
@@ -319,7 +322,7 @@
     <t>C31 C32 C43 C68 C69 C70 C71 C75 C77</t>
   </si>
   <si>
-    <t>1µF 50V Electrolytic</t>
+    <t>1µF - 50V Electrolytic</t>
   </si>
   <si>
     <t>594-MAL203038108E3</t>
@@ -328,7 +331,7 @@
     <t>C27 C46</t>
   </si>
   <si>
-    <t>4.7µF 5V Electrolytic</t>
+    <t>4.7µF - 5V Electrolytic</t>
   </si>
   <si>
     <t>594-MAL203038478E3</t>
@@ -337,7 +340,7 @@
     <t>C74</t>
   </si>
   <si>
-    <t>22µF 10V Electrolytic</t>
+    <t>22µF - 10V Electrolytic</t>
   </si>
   <si>
     <t>594-MAL203036229E3</t>
@@ -346,7 +349,7 @@
     <t>C25 C28 C34 C47 C50 C65</t>
   </si>
   <si>
-    <t>100µF 16V Electrolytic</t>
+    <t>100µF - 16V Electrolytic</t>
   </si>
   <si>
     <t>594-MAL203136101E3</t>
@@ -577,7 +580,7 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Beeper, 20mW, 40Ω</t>
+    <t>Speaker, 20mW, 40Ω</t>
   </si>
   <si>
     <t>497-SM230332-2</t>
@@ -607,7 +610,7 @@
     <t>3.5mm Mono Audio Jack Socket</t>
   </si>
   <si>
-    <t>e.g. Cliff FCR1281</t>
+    <t>e.g. Cliff FCR1281, with one leg clipped off</t>
   </si>
   <si>
     <t>DC Power Socket 5.5mm/2.1mm</t>
@@ -619,16 +622,22 @@
     <t>Keyboard Connector 5-pin</t>
   </si>
   <si>
+    <t>Molex 5229-05CPB</t>
+  </si>
+  <si>
     <t>571-5-520315-5</t>
   </si>
   <si>
     <t>Keyboard Connector 8-pin</t>
   </si>
   <si>
+    <t>Molex 5229-08CPB</t>
+  </si>
+  <si>
     <t>571-5-520315-8</t>
   </si>
   <si>
-    <t>TV Modulator</t>
+    <t>Astek UM1233 Modulator</t>
   </si>
   <si>
     <t>Alternatives: Composite Mod, S-Video Mod</t>
@@ -1289,11 +1298,14 @@
       <c r="B9" t="s">
         <v>26</v>
       </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1301,13 +1313,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1315,16 +1327,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1332,16 +1344,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1349,21 +1361,21 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1377,19 +1389,19 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1397,19 +1409,19 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1417,19 +1429,19 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1437,19 +1449,19 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1457,24 +1469,24 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1488,16 +1500,16 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1505,16 +1517,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1522,21 +1534,21 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1550,16 +1562,16 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1567,16 +1579,16 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1584,16 +1596,16 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1601,16 +1613,16 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1618,16 +1630,16 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1635,16 +1647,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1652,16 +1664,16 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1669,16 +1681,16 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1686,16 +1698,16 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1703,16 +1715,16 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1720,16 +1732,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1737,16 +1749,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1754,21 +1766,21 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1782,16 +1794,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1799,16 +1811,16 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1816,16 +1828,16 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1833,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1850,16 +1862,16 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1867,16 +1879,16 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1884,16 +1896,16 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1901,16 +1913,16 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1918,16 +1930,16 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1935,16 +1947,16 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1952,16 +1964,16 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1969,16 +1981,16 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1986,16 +1998,16 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2003,16 +2015,16 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2020,16 +2032,16 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2037,16 +2049,16 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2054,16 +2066,16 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2071,16 +2083,16 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2088,16 +2100,16 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2105,16 +2117,16 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2122,16 +2134,16 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2139,21 +2151,21 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2167,13 +2179,13 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2181,21 +2193,21 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2209,10 +2221,10 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2220,16 +2232,16 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2237,10 +2249,10 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C67" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2248,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2256,10 +2268,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C69" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2267,10 +2279,10 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C70" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2278,10 +2290,13 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="C71" t="s">
+        <v>202</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2289,10 +2304,13 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="C72" t="s">
+        <v>205</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2300,10 +2318,10 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C73" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2311,12 +2329,12 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2330,19 +2348,19 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C76" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2350,19 +2368,19 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C77" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D77" t="s">
         <v>19</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2370,19 +2388,19 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2390,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C79" t="s">
         <v>22</v>
@@ -2399,7 +2417,7 @@
         <v>24</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>25</v>
@@ -2410,24 +2428,24 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C80" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="60" customHeight="1">
       <c r="A82" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/docs/zxspectrum-bom.xlsx
+++ b/docs/zxspectrum-bom.xlsx
@@ -448,7 +448,7 @@
     <t>603-MF0207FTE52-470R</t>
   </si>
   <si>
-    <t>R1 R2 R3 R4 R5 R6 R7 R8 R26 R27 R28</t>
+    <t>R1 R2 R3 R4 R5 R6 R7 R8 R26 R27 R78</t>
   </si>
   <si>
     <t>680Ω - 1/4W, 5%</t>
@@ -716,7 +716,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Version: 0.1 (2022-12-08)
+      <t xml:space="preserve">Version: 0.2 (2022-12-25)
 </t>
     </r>
     <r>

--- a/docs/zxspectrum-bom.xlsx
+++ b/docs/zxspectrum-bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="229">
   <si>
     <t>Qty</t>
   </si>
@@ -148,7 +148,7 @@
     <t>ZTX313</t>
   </si>
   <si>
-    <t>Replacement: BC548C</t>
+    <t>Replacement: BC548C (flat side in other direction)</t>
   </si>
   <si>
     <t>TO92</t>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>22µF - 10V Electrolytic</t>
+  </si>
+  <si>
+    <t>Leave out C65 if S-Video Mod is used</t>
   </si>
   <si>
     <t>594-MAL203036229E3</t>
@@ -716,7 +719,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Version: 0.2 (2022-12-25)
+      <t xml:space="preserve">Version: 0.3 (2022-12-26)
 </t>
     </r>
     <r>
@@ -1751,14 +1754,17 @@
       <c r="B36" t="s">
         <v>108</v>
       </c>
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
       <c r="D36" t="s">
         <v>75</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1766,21 +1772,21 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
         <v>75</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1794,16 +1800,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
         <v>64</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1811,16 +1817,16 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" t="s">
         <v>64</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1828,16 +1834,16 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" t="s">
         <v>64</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1845,16 +1851,16 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
         <v>64</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1862,16 +1868,16 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
         <v>64</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1879,16 +1885,16 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
         <v>64</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1896,16 +1902,16 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" t="s">
         <v>64</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1913,16 +1919,16 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
         <v>64</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1930,16 +1936,16 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
         <v>64</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1947,16 +1953,16 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" t="s">
         <v>64</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1964,16 +1970,16 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" t="s">
         <v>64</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1981,16 +1987,16 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" t="s">
         <v>64</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1998,16 +2004,16 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" t="s">
         <v>64</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2015,16 +2021,16 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" t="s">
         <v>64</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2032,16 +2038,16 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" t="s">
         <v>64</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2049,16 +2055,16 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" t="s">
         <v>64</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2066,16 +2072,16 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" t="s">
         <v>64</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2083,16 +2089,16 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" t="s">
         <v>64</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2100,16 +2106,16 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" t="s">
         <v>64</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2117,16 +2123,16 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" t="s">
         <v>64</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2134,16 +2140,16 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" t="s">
         <v>64</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2151,21 +2157,21 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" t="s">
         <v>64</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2179,13 +2185,13 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2193,21 +2199,21 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2221,10 +2227,10 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2232,16 +2238,16 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C66" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2249,10 +2255,10 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C67" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2260,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2268,10 +2274,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C69" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2279,10 +2285,10 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C70" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2290,13 +2296,13 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C71" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2304,13 +2310,13 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2318,10 +2324,10 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C73" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2329,12 +2335,12 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2348,19 +2354,19 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D76" t="s">
         <v>36</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2368,19 +2374,19 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C77" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" t="s">
         <v>19</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2388,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -2397,7 +2403,7 @@
         <v>30</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>31</v>
@@ -2408,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C79" t="s">
         <v>22</v>
@@ -2417,7 +2423,7 @@
         <v>24</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>25</v>
@@ -2428,24 +2434,24 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C80" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="60" customHeight="1">
       <c r="A82" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/docs/zxspectrum-bom.xlsx
+++ b/docs/zxspectrum-bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="232">
   <si>
     <t>Qty</t>
   </si>
@@ -157,7 +157,16 @@
     <t>637-BC548C</t>
   </si>
   <si>
-    <t>TR1 TR2 TR3 TR6</t>
+    <t>TR1 TR2</t>
+  </si>
+  <si>
+    <t>Replacement: MPS2369</t>
+  </si>
+  <si>
+    <t>863-MPS2369</t>
+  </si>
+  <si>
+    <t>TR3 TR6</t>
   </si>
   <si>
     <t>ZTX650</t>
@@ -1153,7 +1162,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1389,7 +1398,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
@@ -1409,22 +1418,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1432,19 +1441,19 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
         <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
       </c>
       <c r="D17" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1452,78 +1461,81 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
         <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
       </c>
       <c r="D18" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
         <v>45</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="3" t="s">
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2" t="s">
+      <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
         <v>67</v>
-      </c>
-      <c r="D22" t="s">
-        <v>64</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>68</v>
@@ -1540,7 +1552,7 @@
         <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>71</v>
@@ -1550,42 +1562,42 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="2" t="s">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
         <v>78</v>
-      </c>
-      <c r="D26" t="s">
-        <v>75</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>79</v>
@@ -1596,13 +1608,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
         <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>82</v>
@@ -1613,13 +1625,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>85</v>
@@ -1636,7 +1648,7 @@
         <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>88</v>
@@ -1647,13 +1659,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
         <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>91</v>
@@ -1664,13 +1676,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
         <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>94</v>
@@ -1681,13 +1693,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
         <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>97</v>
@@ -1698,13 +1710,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
         <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>100</v>
@@ -1715,13 +1727,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>103</v>
@@ -1732,13 +1744,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
         <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>106</v>
@@ -1749,33 +1761,33 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
         <v>108</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D36" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" t="s">
         <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>113</v>
@@ -1785,42 +1797,42 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="2" t="s">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="D38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
         <v>119</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>120</v>
@@ -1831,13 +1843,13 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
         <v>122</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>123</v>
@@ -1854,7 +1866,7 @@
         <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>126</v>
@@ -1871,7 +1883,7 @@
         <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>129</v>
@@ -1888,7 +1900,7 @@
         <v>131</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>132</v>
@@ -1899,13 +1911,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
         <v>134</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>135</v>
@@ -1916,13 +1928,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
         <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>138</v>
@@ -1933,13 +1945,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
         <v>140</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>141</v>
@@ -1950,13 +1962,13 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B48" t="s">
         <v>143</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>144</v>
@@ -1967,13 +1979,13 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
         <v>146</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>147</v>
@@ -1984,13 +1996,13 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
         <v>149</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>150</v>
@@ -2001,33 +2013,33 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B51" t="s">
         <v>152</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>156</v>
@@ -2035,13 +2047,13 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B53" t="s">
         <v>157</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>158</v>
@@ -2052,13 +2064,13 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B54" t="s">
         <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>161</v>
@@ -2075,7 +2087,7 @@
         <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>164</v>
@@ -2092,7 +2104,7 @@
         <v>166</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>167</v>
@@ -2103,13 +2115,13 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B57" t="s">
         <v>169</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>170</v>
@@ -2120,13 +2132,13 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
         <v>172</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>173</v>
@@ -2137,13 +2149,13 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
         <v>175</v>
       </c>
       <c r="D59" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>176</v>
@@ -2160,7 +2172,7 @@
         <v>178</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>179</v>
@@ -2170,29 +2182,32 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="2" t="s">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
         <v>181</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+      <c r="D61" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
-        <v>182</v>
-      </c>
-      <c r="D62" t="s">
-        <v>183</v>
-      </c>
-      <c r="F62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
@@ -2202,9 +2217,6 @@
         <v>185</v>
       </c>
       <c r="D63" t="s">
-        <v>183</v>
-      </c>
-      <c r="E63" s="4" t="s">
         <v>186</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -2212,42 +2224,42 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="2" t="s">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
+      <c r="D64" t="s">
+        <v>186</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65">
-        <v>1</v>
-      </c>
-      <c r="B65" t="s">
-        <v>189</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="A65" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>191</v>
-      </c>
-      <c r="C66" t="s">
         <v>192</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2255,10 +2267,16 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" t="s">
         <v>195</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>196</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2266,29 +2284,29 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="C68" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>198</v>
-      </c>
-      <c r="C69" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C70" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2296,12 +2314,9 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C71" t="s">
-        <v>203</v>
-      </c>
-      <c r="E71" s="4" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2329,84 +2344,78 @@
       <c r="C73" t="s">
         <v>209</v>
       </c>
+      <c r="E73" s="4" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>211</v>
+      </c>
+      <c r="C74" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
         <v>4</v>
       </c>
-      <c r="B74" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
+      <c r="B75" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76">
-        <v>2</v>
-      </c>
-      <c r="B76" t="s">
-        <v>212</v>
-      </c>
-      <c r="C76" t="s">
-        <v>213</v>
-      </c>
-      <c r="D76" t="s">
-        <v>36</v>
-      </c>
-      <c r="E76" s="4" t="s">
+      <c r="A76" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>215</v>
-      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B77" t="s">
+        <v>215</v>
+      </c>
+      <c r="C77" t="s">
         <v>216</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D77" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" s="4" t="s">
+      <c r="F77" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B78" t="s">
+        <v>219</v>
+      </c>
+      <c r="C78" t="s">
         <v>220</v>
       </c>
-      <c r="C78" t="s">
-        <v>29</v>
-      </c>
       <c r="D78" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>221</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>31</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2414,44 +2423,64 @@
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C80" t="s">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>226</v>
       </c>
       <c r="F80" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="60" customHeight="1">
-      <c r="A82" s="5" t="s">
+      <c r="C81" t="s">
         <v>228</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="60" customHeight="1">
+      <c r="A83" s="5" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2459,13 +2488,13 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="A75:G75"/>
-    <mergeCell ref="A82:G82"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A83:G83"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1"/>
@@ -2477,10 +2506,10 @@
     <hyperlink ref="E17" r:id="rId7"/>
     <hyperlink ref="E18" r:id="rId8"/>
     <hyperlink ref="E19" r:id="rId9"/>
-    <hyperlink ref="E21" r:id="rId10"/>
+    <hyperlink ref="E20" r:id="rId10"/>
     <hyperlink ref="E22" r:id="rId11"/>
     <hyperlink ref="E23" r:id="rId12"/>
-    <hyperlink ref="E25" r:id="rId13"/>
+    <hyperlink ref="E24" r:id="rId13"/>
     <hyperlink ref="E26" r:id="rId14"/>
     <hyperlink ref="E27" r:id="rId15"/>
     <hyperlink ref="E28" r:id="rId16"/>
@@ -2493,7 +2522,7 @@
     <hyperlink ref="E35" r:id="rId23"/>
     <hyperlink ref="E36" r:id="rId24"/>
     <hyperlink ref="E37" r:id="rId25"/>
-    <hyperlink ref="E39" r:id="rId26"/>
+    <hyperlink ref="E38" r:id="rId26"/>
     <hyperlink ref="E40" r:id="rId27"/>
     <hyperlink ref="E41" r:id="rId28"/>
     <hyperlink ref="E42" r:id="rId29"/>
@@ -2515,16 +2544,17 @@
     <hyperlink ref="E58" r:id="rId45"/>
     <hyperlink ref="E59" r:id="rId46"/>
     <hyperlink ref="E60" r:id="rId47"/>
-    <hyperlink ref="E63" r:id="rId48"/>
-    <hyperlink ref="E65" r:id="rId49"/>
+    <hyperlink ref="E61" r:id="rId48"/>
+    <hyperlink ref="E64" r:id="rId49"/>
     <hyperlink ref="E66" r:id="rId50"/>
-    <hyperlink ref="E71" r:id="rId51"/>
+    <hyperlink ref="E67" r:id="rId51"/>
     <hyperlink ref="E72" r:id="rId52"/>
-    <hyperlink ref="E76" r:id="rId53"/>
+    <hyperlink ref="E73" r:id="rId53"/>
     <hyperlink ref="E77" r:id="rId54"/>
     <hyperlink ref="E78" r:id="rId55"/>
     <hyperlink ref="E79" r:id="rId56"/>
     <hyperlink ref="E80" r:id="rId57"/>
+    <hyperlink ref="E81" r:id="rId58"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/zxspectrum-bom.xlsx
+++ b/docs/zxspectrum-bom.xlsx
@@ -728,7 +728,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Version: 0.3 (2022-12-26)
+      <t xml:space="preserve">Version: 1.0 (2023-01-07)
 </t>
     </r>
     <r>

--- a/docs/zxspectrum-bom.xlsx
+++ b/docs/zxspectrum-bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="234">
   <si>
     <t>Qty</t>
   </si>
@@ -106,6 +106,9 @@
     <t>LM1889N</t>
   </si>
   <si>
+    <t>Alternative: SN94459N (rare, not recommended)</t>
+  </si>
+  <si>
     <t>DIP18</t>
   </si>
   <si>
@@ -148,7 +151,7 @@
     <t>ZTX313</t>
   </si>
   <si>
-    <t>Replacement: BC548C (flat side in other direction)</t>
+    <t>Replacement: BC548C (reverse mounted)</t>
   </si>
   <si>
     <t>TO92</t>
@@ -184,7 +187,7 @@
     <t>ZTX213</t>
   </si>
   <si>
-    <t>Replacement: BC557 (flat side in other direction)</t>
+    <t>Replacement: BC557 (reverse mounted)</t>
   </si>
   <si>
     <t>637-BC557C</t>
@@ -194,6 +197,9 @@
   </si>
   <si>
     <t>ZTX450</t>
+  </si>
+  <si>
+    <t>Replacement: ZTX651 or BC337 (reverse mounted)</t>
   </si>
   <si>
     <t>TR7</t>
@@ -728,7 +734,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Version: 1.0 (2023-01-07)
+      <t xml:space="preserve">Version: 1.1 (2024-02-27)
 </t>
     </r>
     <r>
@@ -1172,8 +1178,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="2" max="3" width="50.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.7109375" customWidth="1"/>
@@ -1327,11 +1332,14 @@
       <c r="B10" t="s">
         <v>29</v>
       </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1339,16 +1347,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1356,16 +1364,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1373,21 +1381,21 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1401,19 +1409,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1421,19 +1429,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1441,19 +1449,19 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1461,19 +1469,19 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1481,19 +1489,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1501,24 +1509,24 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1532,16 +1540,16 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1549,16 +1557,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1566,21 +1574,21 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1594,16 +1602,16 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1611,16 +1619,16 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1628,16 +1636,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1645,16 +1653,16 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1662,16 +1670,16 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1679,16 +1687,16 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1696,16 +1704,16 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1713,16 +1721,16 @@
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1730,16 +1738,16 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1747,16 +1755,16 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1764,16 +1772,16 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1781,19 +1789,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1801,21 +1809,21 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1829,16 +1837,16 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1846,16 +1854,16 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1863,16 +1871,16 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1880,16 +1888,16 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1897,16 +1905,16 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1914,16 +1922,16 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1931,16 +1939,16 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1948,16 +1956,16 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1965,16 +1973,16 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1982,16 +1990,16 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1999,16 +2007,16 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2016,16 +2024,16 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2033,16 +2041,16 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="F52" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2050,16 +2058,16 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2067,16 +2075,16 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2084,16 +2092,16 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2101,16 +2109,16 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2118,16 +2126,16 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2135,16 +2143,16 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2152,16 +2160,16 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2169,16 +2177,16 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2186,21 +2194,21 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2214,13 +2222,13 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2228,21 +2236,21 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
+        <v>190</v>
+      </c>
+      <c r="D64" t="s">
         <v>188</v>
       </c>
-      <c r="D64" t="s">
-        <v>186</v>
-      </c>
       <c r="E64" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2256,10 +2264,10 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2267,16 +2275,16 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C67" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2284,10 +2292,10 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C68" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2295,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2303,10 +2311,10 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C70" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2314,10 +2322,10 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C71" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2325,13 +2333,13 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C72" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2339,13 +2347,13 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C73" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2353,10 +2361,10 @@
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C74" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2364,12 +2372,12 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2383,19 +2391,19 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C77" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2403,19 +2411,19 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C78" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" t="s">
         <v>19</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2423,19 +2431,19 @@
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C79" t="s">
         <v>29</v>
       </c>
       <c r="D79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2443,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C80" t="s">
         <v>22</v>
@@ -2452,7 +2460,7 @@
         <v>24</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>25</v>
@@ -2463,24 +2471,24 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C81" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="60" customHeight="1">
       <c r="A83" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/docs/zxspectrum-bom.xlsx
+++ b/docs/zxspectrum-bom.xlsx
@@ -734,7 +734,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Version: 1.1 (2024-02-27)
+      <t xml:space="preserve">Version: 1.2 (2024-04-19)
 </t>
     </r>
     <r>
